--- a/BackTest/2020-01-23 BackTest AE.xlsx
+++ b/BackTest/2020-01-23 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>-79527.42260040442</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1870,14 +1870,10 @@
         <v>-89569.8423388857</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>192</v>
-      </c>
-      <c r="J45" t="n">
-        <v>192</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1910,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>192</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1949,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>192</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,19 +1969,11 @@
         <v>-95664.2040388857</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>192</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,19 +2002,11 @@
         <v>-95664.2040388857</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>192</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2067,19 +2035,11 @@
         <v>-94064.6577388857</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="J50" t="n">
-        <v>192</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2108,19 +2068,11 @@
         <v>-94959.4975388857</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>192</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2149,19 +2101,11 @@
         <v>-94860.4975388857</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="J52" t="n">
-        <v>192</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2190,19 +2134,11 @@
         <v>-84628.31023888569</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>192</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>192</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>192</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>192</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>192</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>192</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>192</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>192</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>192</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>192</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>192</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>192</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>192</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>192</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>192</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2780,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>192</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2819,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>192</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2858,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>192</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2897,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>192</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2936,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>192</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2975,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>192</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3014,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>192</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3053,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>192</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3092,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>192</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3131,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>192</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3170,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>192</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3206,19 +2992,13 @@
         <v>-91313.67222377233</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>192</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.028854166666667</v>
+        <v>1</v>
       </c>
       <c r="M79" t="inlineStr"/>
     </row>
@@ -3311,7 +3091,7 @@
         <v>-117738.2736237723</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3641,7 +3421,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3674,7 +3454,7 @@
         <v>-120436.4758705465</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3740,7 +3520,7 @@
         <v>-120291.6923705465</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3806,7 +3586,7 @@
         <v>-121910.0447705465</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3872,7 +3652,7 @@
         <v>-137829.8474705465</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3938,7 +3718,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3971,7 +3751,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4004,7 +3784,7 @@
         <v>-130168.7122705465</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4070,7 +3850,7 @@
         <v>-122979.8109705465</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4103,7 +3883,7 @@
         <v>-122772.3839705465</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4268,7 +4048,7 @@
         <v>-107554.8903856599</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4301,7 +4081,7 @@
         <v>-106512.8929020162</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4334,7 +4114,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4367,7 +4147,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4433,7 +4213,7 @@
         <v>-107794.2650020162</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4466,7 +4246,7 @@
         <v>-107868.7041020162</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4499,7 +4279,7 @@
         <v>-98330.44870201619</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4532,7 +4312,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4565,7 +4345,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4598,7 +4378,7 @@
         <v>-91239.09550201619</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4631,7 +4411,7 @@
         <v>-91836.89660201619</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4664,7 +4444,7 @@
         <v>-93768.9485020162</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4697,7 +4477,7 @@
         <v>-93685.2935020162</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4730,7 +4510,7 @@
         <v>-102384.3907020162</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4763,7 +4543,7 @@
         <v>-102308.8159020162</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4796,7 +4576,7 @@
         <v>-102308.8159020162</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4829,7 +4609,7 @@
         <v>-103056.8997020162</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4862,7 +4642,7 @@
         <v>-103066.8162020162</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4895,7 +4675,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4928,7 +4708,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4961,7 +4741,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4994,7 +4774,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5027,7 +4807,7 @@
         <v>-52512.5954020162</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5060,7 +4840,7 @@
         <v>-52512.5954020162</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5093,7 +4873,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5126,7 +4906,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5159,7 +4939,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5192,7 +4972,7 @@
         <v>-52496.0894020162</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5225,7 +5005,7 @@
         <v>-50905.9700020162</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5258,7 +5038,7 @@
         <v>-50905.9700020162</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5291,7 +5071,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5324,7 +5104,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5357,7 +5137,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5390,7 +5170,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5423,7 +5203,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5456,7 +5236,7 @@
         <v>-43871.2381020162</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5489,7 +5269,7 @@
         <v>-43735.8934020162</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5522,7 +5302,7 @@
         <v>-37778.7014020162</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5555,7 +5335,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5588,7 +5368,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5621,7 +5401,7 @@
         <v>-48817.04560201619</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5654,7 +5434,7 @@
         <v>-47526.96420201619</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5687,7 +5467,7 @@
         <v>-47498.72670201619</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5720,7 +5500,7 @@
         <v>-48002.51260201619</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5753,7 +5533,7 @@
         <v>-62471.78610201619</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5786,7 +5566,7 @@
         <v>-63039.7872020162</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5819,7 +5599,7 @@
         <v>-63090.96210201619</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5852,7 +5632,7 @@
         <v>-63075.8621020162</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5885,7 +5665,7 @@
         <v>-69826.5862020162</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5918,7 +5698,7 @@
         <v>-69720.5862020162</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5951,7 +5731,7 @@
         <v>-69701.96190201621</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5984,7 +5764,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6017,7 +5797,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6050,7 +5830,7 @@
         <v>-69804.4005020162</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6083,7 +5863,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6116,7 +5896,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6149,7 +5929,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6182,7 +5962,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6215,7 +5995,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6248,7 +6028,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6281,7 +6061,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6314,7 +6094,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6347,7 +6127,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6380,7 +6160,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6413,7 +6193,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6446,7 +6226,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6479,7 +6259,7 @@
         <v>-72447.08290201622</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6512,7 +6292,7 @@
         <v>-74893.76390201622</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6545,7 +6325,7 @@
         <v>-74496.27820201621</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6578,7 +6358,7 @@
         <v>-75786.34990201621</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6611,7 +6391,7 @@
         <v>-75005.99240201621</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6644,7 +6424,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6677,7 +6457,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6710,7 +6490,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6743,7 +6523,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6776,7 +6556,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6809,7 +6589,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6842,7 +6622,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6875,7 +6655,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6908,7 +6688,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6941,7 +6721,7 @@
         <v>-75527.42560201621</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6974,7 +6754,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7007,7 +6787,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7040,7 +6820,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7073,7 +6853,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7106,7 +6886,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7139,7 +6919,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7172,7 +6952,7 @@
         <v>-75830.61910201621</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7205,7 +6985,7 @@
         <v>-85370.32070201621</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7238,7 +7018,7 @@
         <v>-88240.32070201621</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7271,7 +7051,7 @@
         <v>-88225.82140201621</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7304,7 +7084,7 @@
         <v>-88356.36140201621</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7370,7 +7150,7 @@
         <v>-89213.36140201621</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7403,7 +7183,7 @@
         <v>-94183.36140201621</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7436,7 +7216,7 @@
         <v>-94183.36140201621</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7469,7 +7249,7 @@
         <v>-102429.0693020162</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7502,7 +7282,7 @@
         <v>-102408.7805020162</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7535,7 +7315,7 @@
         <v>-103751.1217020162</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7568,7 +7348,7 @@
         <v>-103716.5661020162</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7601,7 +7381,7 @@
         <v>-103716.5661020162</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7634,7 +7414,7 @@
         <v>-103566.5661020162</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7667,7 +7447,7 @@
         <v>-112959.1749020162</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7700,7 +7480,7 @@
         <v>-171417.4077020162</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7733,7 +7513,7 @@
         <v>-169167.4077020162</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7766,7 +7546,7 @@
         <v>-169167.4077020162</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7799,7 +7579,7 @@
         <v>-166844.4077020162</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7832,7 +7612,7 @@
         <v>-167044.4077020162</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7865,7 +7645,7 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7898,7 +7678,7 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7931,7 +7711,7 @@
         <v>-152157.7769020162</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7964,7 +7744,7 @@
         <v>-138705.6659020162</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7997,7 +7777,7 @@
         <v>-138943.7595020162</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8030,7 +7810,7 @@
         <v>-135884.0755020161</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8063,7 +7843,7 @@
         <v>-135884.0755020161</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8096,7 +7876,7 @@
         <v>-135884.0755020161</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8129,7 +7909,7 @@
         <v>-135884.0755020161</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8162,7 +7942,7 @@
         <v>-138872.2277020162</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8195,7 +7975,7 @@
         <v>-136238.4775020161</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8525,7 +8305,7 @@
         <v>-127679.7462020162</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8921,7 +8701,7 @@
         <v>-111092.7601940001</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8954,7 +8734,7 @@
         <v>-128906.2379940001</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8987,7 +8767,7 @@
         <v>-131227.2379940001</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9053,7 +8833,7 @@
         <v>-130571.7475940001</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9185,7 +8965,7 @@
         <v>-140734.7475940001</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9251,7 +9031,7 @@
         <v>-128327.0605940001</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9284,7 +9064,7 @@
         <v>-128647.0605940001</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9317,7 +9097,7 @@
         <v>-132307.0605940001</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9977,7 +9757,7 @@
         <v>-161918.33532351</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10010,7 +9790,7 @@
         <v>-164610.75372351</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10043,7 +9823,7 @@
         <v>-164603.75372351</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10076,7 +9856,7 @@
         <v>-164603.75372351</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10109,7 +9889,7 @@
         <v>-166071.63772351</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10472,7 +10252,7 @@
         <v>-180977.00452351</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10538,7 +10318,7 @@
         <v>-274516.69762351</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11825,95 +11605,83 @@
         <v>-353279.6799235099</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>191.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>190</v>
+      </c>
+      <c r="C341" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D341" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>190</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4768.2103</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-348511.46962351</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>190</v>
+      </c>
+      <c r="C342" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>190</v>
+      </c>
+      <c r="F342" t="n">
+        <v>8996.736800000001</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-339514.73282351</v>
+      </c>
+      <c r="H342" t="n">
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>190</v>
-      </c>
-      <c r="C341" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D341" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E341" t="n">
-        <v>190</v>
-      </c>
-      <c r="F341" t="n">
-        <v>4768.2103</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-348511.46962351</v>
-      </c>
-      <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>190</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>190</v>
-      </c>
-      <c r="C342" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="D342" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="E342" t="n">
-        <v>190</v>
-      </c>
-      <c r="F342" t="n">
-        <v>8996.736800000001</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-339514.73282351</v>
-      </c>
-      <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11942,9 +11710,11 @@
         <v>-339519.73282351</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>192.9</v>
+      </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
@@ -11979,7 +11749,7 @@
         <v>-338419.73282351</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>191.8</v>
@@ -12018,7 +11788,7 @@
         <v>-338419.73282351</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>191.9</v>
@@ -12057,9 +11827,11 @@
         <v>-338419.73282351</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>191.9</v>
+      </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12094,7 +11866,7 @@
         <v>-344419.73282351</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>191.9</v>
@@ -12133,7 +11905,7 @@
         <v>-344409.87432351</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>191.6</v>
@@ -12150,6 +11922,6 @@
       <c r="M348" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AE.xlsx
+++ b/BackTest/2020-01-23 BackTest AE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2992,7 +2992,7 @@
         <v>-91313.67222377233</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-92369.94972377233</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-120629.9227705465</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-128351.1038705465</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-127461.1038705465</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-120436.4758705465</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-120291.6923705465</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-121910.0447705465</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-135301.7122705465</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-130168.7122705465</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-122979.8109705465</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-122772.3839705465</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-106512.8929020162</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-107794.2650020162</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-107868.7041020162</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-98330.44870201619</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-89619.24670201619</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-91239.09550201619</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-91836.89660201619</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-93768.9485020162</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-93685.2935020162</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-102384.3907020162</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-102308.8159020162</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-103056.8997020162</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-103066.8162020162</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-52850.0275020162</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-52512.5954020162</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-52512.5954020162</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-52496.0894020162</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-50905.9700020162</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-50905.9700020162</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-43871.2381020162</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-43735.8934020162</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-37778.7014020162</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-48817.04560201619</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-47526.96420201619</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-47498.72670201619</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-48002.51260201619</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-62471.78610201619</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-63039.7872020162</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-63090.96210201619</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-63075.8621020162</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-69826.5862020162</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-69720.5862020162</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-69701.96190201621</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-69804.4005020162</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-72447.08290201622</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-74893.76390201622</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-74496.27820201621</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-75786.34990201621</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-75005.99240201621</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-75146.62080201622</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-75714.62190201621</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-75527.42560201621</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-75830.61910201621</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-85370.32070201621</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-88240.32070201621</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-88225.82140201621</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-88356.36140201621</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-89213.36140201621</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-94183.36140201621</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-94183.36140201621</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-102429.0693020162</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-102408.7805020162</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-103751.1217020162</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-103716.5661020162</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-103716.5661020162</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-103566.5661020162</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-112959.1749020162</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-171417.4077020162</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-169167.4077020162</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-169167.4077020162</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-166844.4077020162</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-167044.4077020162</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,11 +7645,17 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>191.9</v>
+      </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7688,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7725,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7762,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +7795,17 @@
         <v>-138943.7595020162</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>194</v>
+      </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7838,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7875,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7912,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +7949,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +7986,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8023,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8060,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8097,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8134,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8171,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8208,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8245,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8282,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8319,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8356,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8393,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8430,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8467,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8504,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8541,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8578,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8615,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8652,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8689,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8726,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8763,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8800,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8837,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8874,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8911,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8948,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8985,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9022,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9059,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9096,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9133,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9170,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9207,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9244,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9281,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9318,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9355,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9392,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9429,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9466,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9503,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9540,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9577,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,14 +9610,16 @@
         <v>-165013.78712351</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -9757,7 +9975,7 @@
         <v>-161918.33532351</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +10008,7 @@
         <v>-164610.75372351</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10041,7 @@
         <v>-164603.75372351</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10074,7 @@
         <v>-164603.75372351</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10107,7 @@
         <v>-166071.63772351</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10912,10 +11130,14 @@
         <v>-304023.53222351</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="J319" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
@@ -10948,8 +11170,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11206,19 @@
         <v>-304165.68862351</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="J321" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11247,19 @@
         <v>-303790.71982351</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="J322" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11288,19 @@
         <v>-372403.82462351</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11332,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11368,19 @@
         <v>-372382.93852351</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11409,19 @@
         <v>-372333.62212351</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11453,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11492,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11531,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11570,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11609,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11648,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11687,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11726,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11765,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11476,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11840,19 @@
         <v>-381124.69482351</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="J337" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11881,19 @@
         <v>-349629.85652351</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="J338" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11925,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11961,19 @@
         <v>-353279.6799235099</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="J340" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +12002,19 @@
         <v>-348511.46962351</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>190</v>
+      </c>
+      <c r="J341" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11676,10 +12048,12 @@
       <c r="I342" t="n">
         <v>191.9</v>
       </c>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -11715,7 +12089,9 @@
       <c r="I343" t="n">
         <v>192.9</v>
       </c>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11754,7 +12130,9 @@
       <c r="I344" t="n">
         <v>191.8</v>
       </c>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11793,7 +12171,9 @@
       <c r="I345" t="n">
         <v>191.9</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,7 +12212,9 @@
       <c r="I346" t="n">
         <v>191.9</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11871,7 +12253,9 @@
       <c r="I347" t="n">
         <v>191.9</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11910,7 +12294,9 @@
       <c r="I348" t="n">
         <v>191.6</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>192.5</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11922,6 +12308,6 @@
       <c r="M348" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AE.xlsx
+++ b/BackTest/2020-01-23 BackTest AE.xlsx
@@ -2992,7 +2992,7 @@
         <v>-91313.67222377233</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-92369.94972377233</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-120629.9227705465</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-128351.1038705465</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-127461.1038705465</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-125875.4758705465</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-137829.8474705465</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-135301.7122705465</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-128341.7122705465</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-107782.8929020162</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-103056.8997020162</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-47112.5954020162</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-42031.2381020162</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-43871.2381020162</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-43735.8934020162</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-34071.57590201619</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-48817.04560201619</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-47526.96420201619</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-48002.51260201619</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-62471.78610201619</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-63090.96210201619</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-69704.96190201621</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-72577.3861020162</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-72390.03300201621</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-71927.80550201621</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-72364.07460201622</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-72447.08290201622</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-74496.27820201621</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-75459.21050201621</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-75559.21050201621</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-85370.32070201621</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7645,17 +7645,11 @@
         <v>-149444.6128020162</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>191.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7688,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7725,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7795,17 +7777,11 @@
         <v>-138943.7595020162</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7838,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7949,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8023,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8097,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8319,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8467,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9096,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9281,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9610,16 +9394,14 @@
         <v>-165013.78712351</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
       <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
@@ -11130,14 +10912,10 @@
         <v>-304023.53222351</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="J319" t="n">
-        <v>192.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
@@ -11170,1097 +10948,919 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="C321" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="D321" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="E321" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="F321" t="n">
+        <v>5.2254</v>
+      </c>
+      <c r="G321" t="n">
+        <v>-304165.68862351</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="C322" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E322" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="F322" t="n">
+        <v>374.9688</v>
+      </c>
+      <c r="G322" t="n">
+        <v>-303790.71982351</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="C323" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="D323" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="E323" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>68613.1048</v>
+      </c>
+      <c r="G323" t="n">
+        <v>-372403.82462351</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D324" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E324" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F324" t="n">
+        <v>20.8861</v>
+      </c>
+      <c r="G324" t="n">
+        <v>-372382.93852351</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E325" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F325" t="n">
+        <v>50</v>
+      </c>
+      <c r="G325" t="n">
+        <v>-372382.93852351</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C326" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="D326" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="E326" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="F326" t="n">
+        <v>49.3164</v>
+      </c>
+      <c r="G326" t="n">
+        <v>-372333.62212351</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F327" t="n">
+        <v>11.122</v>
+      </c>
+      <c r="G327" t="n">
+        <v>-372344.74412351</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="E328" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F328" t="n">
+        <v>577.1043</v>
+      </c>
+      <c r="G328" t="n">
+        <v>-372344.74412351</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="D329" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="F329" t="n">
+        <v>28.6174</v>
+      </c>
+      <c r="G329" t="n">
+        <v>-372316.12672351</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="C330" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="D330" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="E330" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2365.2154</v>
+      </c>
+      <c r="G330" t="n">
+        <v>-372316.12672351</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="C331" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>194.7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>11834.9728</v>
+      </c>
+      <c r="G331" t="n">
+        <v>-360481.15392351</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>193</v>
+      </c>
+      <c r="C332" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="D332" t="n">
+        <v>193</v>
+      </c>
+      <c r="E332" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1842.0597</v>
+      </c>
+      <c r="G332" t="n">
+        <v>-362323.21362351</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C333" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="D333" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="F333" t="n">
+        <v>18400.3133</v>
+      </c>
+      <c r="G333" t="n">
+        <v>-380723.52692351</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>192</v>
+      </c>
+      <c r="C334" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="D334" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="E334" t="n">
+        <v>192</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1651.1857</v>
+      </c>
+      <c r="G334" t="n">
+        <v>-379072.34122351</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
         <v>192.5</v>
       </c>
-      <c r="K320" t="inlineStr">
+      <c r="C335" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D335" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="E335" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="F335" t="n">
+        <v>152.3536</v>
+      </c>
+      <c r="G335" t="n">
+        <v>-379224.69482351</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="C336" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="D336" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="E336" t="n">
+        <v>192.5</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2367.803</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-379224.69482351</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="C337" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="D337" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="E337" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-381124.69482351</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="C338" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="D338" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="F338" t="n">
+        <v>31494.8383</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-349629.85652351</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="D339" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="E339" t="n">
+        <v>190</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3346</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-352975.85652351</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="C340" t="n">
+        <v>190</v>
+      </c>
+      <c r="D340" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="E340" t="n">
+        <v>190</v>
+      </c>
+      <c r="F340" t="n">
+        <v>303.8234</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-353279.6799235099</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>190</v>
+      </c>
+      <c r="C341" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D341" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>190</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4768.2103</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-348511.46962351</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>190</v>
+      </c>
+      <c r="C342" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>192.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>190</v>
+      </c>
+      <c r="F342" t="n">
+        <v>8996.736800000001</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-339514.73282351</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="C343" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="D343" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E343" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F343" t="n">
+        <v>5</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-339519.73282351</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="C344" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E344" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-338419.73282351</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="F345" t="n">
+        <v>2272</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-338419.73282351</v>
+      </c>
+      <c r="H345" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J345" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="C346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="D346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="E346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="F346" t="n">
+        <v>21.3009</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-338419.73282351</v>
+      </c>
+      <c r="H346" t="n">
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J346" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="C321" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="D321" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="E321" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="F321" t="n">
-        <v>5.2254</v>
-      </c>
-      <c r="G321" t="n">
-        <v>-304165.68862351</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>191.4</v>
-      </c>
-      <c r="J321" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="C322" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D322" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E322" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="F322" t="n">
-        <v>374.9688</v>
-      </c>
-      <c r="G322" t="n">
-        <v>-303790.71982351</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="J322" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K322" t="inlineStr">
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="C347" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="D347" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="E347" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="F347" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-344419.73282351</v>
+      </c>
+      <c r="H347" t="n">
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="J347" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="C323" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="D323" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="E323" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="F323" t="n">
-        <v>68613.1048</v>
-      </c>
-      <c r="G323" t="n">
-        <v>-372403.82462351</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="J323" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C324" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D324" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E324" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F324" t="n">
-        <v>20.8861</v>
-      </c>
-      <c r="G324" t="n">
-        <v>-372382.93852351</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C325" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E325" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F325" t="n">
-        <v>50</v>
-      </c>
-      <c r="G325" t="n">
-        <v>-372382.93852351</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="J325" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="C326" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="D326" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="E326" t="n">
-        <v>194.8</v>
-      </c>
-      <c r="F326" t="n">
-        <v>49.3164</v>
-      </c>
-      <c r="G326" t="n">
-        <v>-372333.62212351</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="J326" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C327" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D327" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E327" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F327" t="n">
-        <v>11.122</v>
-      </c>
-      <c r="G327" t="n">
-        <v>-372344.74412351</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="C328" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="D328" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="E328" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F328" t="n">
-        <v>577.1043</v>
-      </c>
-      <c r="G328" t="n">
-        <v>-372344.74412351</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="C329" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="D329" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="E329" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="F329" t="n">
-        <v>28.6174</v>
-      </c>
-      <c r="G329" t="n">
-        <v>-372316.12672351</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>193.6</v>
-      </c>
-      <c r="C330" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="D330" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="E330" t="n">
-        <v>193.6</v>
-      </c>
-      <c r="F330" t="n">
-        <v>2365.2154</v>
-      </c>
-      <c r="G330" t="n">
-        <v>-372316.12672351</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="C331" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="D331" t="n">
-        <v>194.7</v>
-      </c>
-      <c r="E331" t="n">
-        <v>193.1</v>
-      </c>
-      <c r="F331" t="n">
-        <v>11834.9728</v>
-      </c>
-      <c r="G331" t="n">
-        <v>-360481.15392351</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>193</v>
-      </c>
-      <c r="C332" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="D332" t="n">
-        <v>193</v>
-      </c>
-      <c r="E332" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1842.0597</v>
-      </c>
-      <c r="G332" t="n">
-        <v>-362323.21362351</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="C333" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="D333" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E333" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="F333" t="n">
-        <v>18400.3133</v>
-      </c>
-      <c r="G333" t="n">
-        <v>-380723.52692351</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>192</v>
-      </c>
-      <c r="C334" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="D334" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="E334" t="n">
-        <v>192</v>
-      </c>
-      <c r="F334" t="n">
-        <v>1651.1857</v>
-      </c>
-      <c r="G334" t="n">
-        <v>-379072.34122351</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="C335" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="D335" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="E335" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="F335" t="n">
-        <v>152.3536</v>
-      </c>
-      <c r="G335" t="n">
-        <v>-379224.69482351</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="C336" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="D336" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="E336" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="F336" t="n">
-        <v>2367.803</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-379224.69482351</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="C337" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="D337" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="E337" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="F337" t="n">
-        <v>1900</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-381124.69482351</v>
-      </c>
-      <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="J337" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="C338" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="D338" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="E338" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="F338" t="n">
-        <v>31494.8383</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-349629.85652351</v>
-      </c>
-      <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>192.4</v>
-      </c>
-      <c r="J338" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>190.4</v>
-      </c>
-      <c r="C339" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="D339" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="E339" t="n">
-        <v>190</v>
-      </c>
-      <c r="F339" t="n">
-        <v>3346</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-352975.85652351</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>193.3</v>
-      </c>
-      <c r="C340" t="n">
-        <v>190</v>
-      </c>
-      <c r="D340" t="n">
-        <v>193.3</v>
-      </c>
-      <c r="E340" t="n">
-        <v>190</v>
-      </c>
-      <c r="F340" t="n">
-        <v>303.8234</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-353279.6799235099</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="J340" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>190</v>
-      </c>
-      <c r="C341" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D341" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E341" t="n">
-        <v>190</v>
-      </c>
-      <c r="F341" t="n">
-        <v>4768.2103</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-348511.46962351</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>190</v>
-      </c>
-      <c r="J341" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>190</v>
-      </c>
-      <c r="C342" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="D342" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="E342" t="n">
-        <v>190</v>
-      </c>
-      <c r="F342" t="n">
-        <v>8996.736800000001</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-339514.73282351</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J342" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="C343" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="D343" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="E343" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="F343" t="n">
-        <v>5</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-339519.73282351</v>
-      </c>
-      <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>192.9</v>
-      </c>
-      <c r="J343" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="C344" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D344" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E344" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="F344" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="J344" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="C345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="F345" t="n">
-        <v>2272</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J345" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="C346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="D346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="E346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="F346" t="n">
-        <v>21.3009</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J346" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="C347" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="D347" t="n">
-        <v>191.8</v>
-      </c>
-      <c r="E347" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="F347" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-344419.73282351</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J347" t="n">
-        <v>192.5</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12295,7 +11895,7 @@
         <v>191.6</v>
       </c>
       <c r="J348" t="n">
-        <v>192.5</v>
+        <v>191.9</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>

--- a/BackTest/2020-01-23 BackTest AE.xlsx
+++ b/BackTest/2020-01-23 BackTest AE.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M348"/>
+  <dimension ref="A1:L348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>77.9862</v>
       </c>
       <c r="G2" t="n">
-        <v>-101950.6862004044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1297.2477</v>
       </c>
       <c r="G3" t="n">
-        <v>-103247.9339004044</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>534.1045</v>
       </c>
       <c r="G4" t="n">
-        <v>-103247.9339004044</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1763.3562</v>
       </c>
       <c r="G5" t="n">
-        <v>-103247.9339004044</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3383.6811</v>
       </c>
       <c r="G6" t="n">
-        <v>-106631.6150004044</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>550.742</v>
       </c>
       <c r="G7" t="n">
-        <v>-106080.8730004044</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>181.3907</v>
       </c>
       <c r="G8" t="n">
-        <v>-105899.4823004044</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4655.9054</v>
       </c>
       <c r="G9" t="n">
-        <v>-101243.5769004044</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>15.44938016528926</v>
       </c>
       <c r="G10" t="n">
-        <v>-101243.5769004044</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2304.550619834711</v>
       </c>
       <c r="G11" t="n">
-        <v>-101243.5769004044</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4578.898</v>
       </c>
       <c r="G12" t="n">
-        <v>-96664.67890040443</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>611</v>
       </c>
       <c r="G13" t="n">
-        <v>-97275.67890040443</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9.996700000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>-97265.68220040442</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>17536.6162</v>
       </c>
       <c r="G15" t="n">
-        <v>-79729.06600040442</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1651.7973</v>
       </c>
       <c r="G16" t="n">
-        <v>-81380.86330040442</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1989.1907</v>
       </c>
       <c r="G17" t="n">
-        <v>-79391.67260040442</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>135.75</v>
       </c>
       <c r="G18" t="n">
-        <v>-79527.42260040442</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>144.8479</v>
       </c>
       <c r="G19" t="n">
-        <v>-79382.57470040442</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>554.7137</v>
       </c>
       <c r="G20" t="n">
-        <v>-79937.28840040442</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2645.3201</v>
       </c>
       <c r="G21" t="n">
-        <v>-77291.96830040442</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4236.1393</v>
       </c>
       <c r="G22" t="n">
-        <v>-73055.82900040442</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>4.1052</v>
       </c>
       <c r="G23" t="n">
-        <v>-73059.93420040443</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>77.9988</v>
       </c>
       <c r="G24" t="n">
-        <v>-73059.93420040443</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>786.1393</v>
       </c>
       <c r="G25" t="n">
-        <v>-73846.07350040443</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>250.2566615187276</v>
       </c>
       <c r="G26" t="n">
-        <v>-73595.8168388857</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>200</v>
       </c>
       <c r="G27" t="n">
-        <v>-73795.8168388857</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>17583.5624</v>
       </c>
       <c r="G28" t="n">
-        <v>-91379.3792388857</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1225.5607</v>
       </c>
       <c r="G29" t="n">
-        <v>-90153.81853888569</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3636.1569</v>
       </c>
       <c r="G30" t="n">
-        <v>-93789.9754388857</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2950.9162</v>
       </c>
       <c r="G31" t="n">
-        <v>-96740.8916388857</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>10230.5372</v>
       </c>
       <c r="G32" t="n">
-        <v>-86510.3544388857</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>3810.5689</v>
       </c>
       <c r="G33" t="n">
-        <v>-86510.3544388857</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>961.0813000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>-85549.27313888569</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>125.2672</v>
       </c>
       <c r="G35" t="n">
-        <v>-85674.54033888569</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>4962.7967</v>
       </c>
       <c r="G36" t="n">
-        <v>-90637.3370388857</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3631</v>
       </c>
       <c r="G37" t="n">
-        <v>-87006.3370388857</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>6868.1394</v>
       </c>
       <c r="G38" t="n">
-        <v>-87006.3370388857</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>4277.0272</v>
       </c>
       <c r="G39" t="n">
-        <v>-91283.3642388857</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>762.7914</v>
       </c>
       <c r="G40" t="n">
-        <v>-91283.3642388857</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1535.6267</v>
       </c>
       <c r="G41" t="n">
-        <v>-89747.7375388857</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>177.8952</v>
       </c>
       <c r="G42" t="n">
-        <v>-89569.8423388857</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>162.7603</v>
       </c>
       <c r="G43" t="n">
-        <v>-89569.8423388857</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>3446.3092</v>
       </c>
       <c r="G44" t="n">
-        <v>-89569.8423388857</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>454.2358</v>
       </c>
       <c r="G45" t="n">
-        <v>-89569.8423388857</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2924.4218</v>
       </c>
       <c r="G46" t="n">
-        <v>-92494.2641388857</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2121.1722</v>
       </c>
       <c r="G47" t="n">
-        <v>-94615.4363388857</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1048.7677</v>
       </c>
       <c r="G48" t="n">
-        <v>-95664.2040388857</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>549.6981</v>
       </c>
       <c r="G49" t="n">
-        <v>-95664.2040388857</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1599.5463</v>
       </c>
       <c r="G50" t="n">
-        <v>-94064.6577388857</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,19 @@
         <v>894.8398</v>
       </c>
       <c r="G51" t="n">
-        <v>-94959.4975388857</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>190.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>190.9</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1947,23 @@
         <v>99</v>
       </c>
       <c r="G52" t="n">
-        <v>-94860.4975388857</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>190.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1985,23 @@
         <v>10232.1873</v>
       </c>
       <c r="G53" t="n">
-        <v>-84628.31023888569</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>190.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,23 @@
         <v>2565.292307692308</v>
       </c>
       <c r="G54" t="n">
-        <v>-82063.01793119339</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>193</v>
+      </c>
+      <c r="I54" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2061,21 @@
         <v>11536.9405</v>
       </c>
       <c r="G55" t="n">
-        <v>-93599.95843119339</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,21 @@
         <v>443.8061</v>
       </c>
       <c r="G56" t="n">
-        <v>-93156.15233119339</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2133,21 @@
         <v>162.0208</v>
       </c>
       <c r="G57" t="n">
-        <v>-92994.13153119339</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2169,21 @@
         <v>2320</v>
       </c>
       <c r="G58" t="n">
-        <v>-90674.13153119339</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2205,21 @@
         <v>4018.9479</v>
       </c>
       <c r="G59" t="n">
-        <v>-94693.07943119339</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2241,21 @@
         <v>4962.7968</v>
       </c>
       <c r="G60" t="n">
-        <v>-94693.07943119339</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2277,21 @@
         <v>2023.8199</v>
       </c>
       <c r="G61" t="n">
-        <v>-94693.07943119339</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2313,21 @@
         <v>812.7066</v>
       </c>
       <c r="G62" t="n">
-        <v>-94693.07943119339</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2349,21 @@
         <v>5.962</v>
       </c>
       <c r="G63" t="n">
-        <v>-94687.11743119339</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2385,21 @@
         <v>26916.89799230769</v>
       </c>
       <c r="G64" t="n">
-        <v>-67770.21943888569</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2421,21 @@
         <v>8104.7146</v>
       </c>
       <c r="G65" t="n">
-        <v>-67770.21943888569</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2457,21 @@
         <v>1783.1609</v>
       </c>
       <c r="G66" t="n">
-        <v>-65987.05853888569</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2493,21 @@
         <v>1474.62</v>
       </c>
       <c r="G67" t="n">
-        <v>-67461.67853888568</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2529,21 @@
         <v>3337.897</v>
       </c>
       <c r="G68" t="n">
-        <v>-64123.78153888568</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2565,21 @@
         <v>50.9751</v>
       </c>
       <c r="G69" t="n">
-        <v>-64072.80643888568</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2601,21 @@
         <v>217.751</v>
       </c>
       <c r="G70" t="n">
-        <v>-64072.80643888568</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2637,21 @@
         <v>206.8874</v>
       </c>
       <c r="G71" t="n">
-        <v>-64072.80643888568</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2673,21 @@
         <v>646</v>
       </c>
       <c r="G72" t="n">
-        <v>-64718.80643888568</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2709,21 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>-64715.80643888568</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2745,21 @@
         <v>28515.3213</v>
       </c>
       <c r="G74" t="n">
-        <v>-93231.12773888568</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1.016477213200629</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2781,15 @@
         <v>313.7534</v>
       </c>
       <c r="G75" t="n">
-        <v>-92917.37433888568</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2811,15 @@
         <v>450.7000636363636</v>
       </c>
       <c r="G76" t="n">
-        <v>-92466.67427524932</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2841,15 @@
         <v>1153.002051476986</v>
       </c>
       <c r="G77" t="n">
-        <v>-91313.67222377233</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2871,15 @@
         <v>10.6332</v>
       </c>
       <c r="G78" t="n">
-        <v>-91313.67222377233</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2901,15 @@
         <v>4942</v>
       </c>
       <c r="G79" t="n">
-        <v>-91313.67222377233</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2931,15 @@
         <v>1056.2775</v>
       </c>
       <c r="G80" t="n">
-        <v>-92369.94972377233</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2961,15 @@
         <v>18576.172</v>
       </c>
       <c r="G81" t="n">
-        <v>-110946.1217237723</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2991,15 @@
         <v>6792.1519</v>
       </c>
       <c r="G82" t="n">
-        <v>-117738.2736237723</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3021,15 @@
         <v>622.6455999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>-117115.6280237723</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3051,15 @@
         <v>7.394153225806452</v>
       </c>
       <c r="G84" t="n">
-        <v>-117108.2338705465</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3081,15 @@
         <v>13275.257</v>
       </c>
       <c r="G85" t="n">
-        <v>-130383.4908705465</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3111,15 @@
         <v>21354.8299</v>
       </c>
       <c r="G86" t="n">
-        <v>-109028.6609705465</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3141,15 @@
         <v>13144.2618</v>
       </c>
       <c r="G87" t="n">
-        <v>-122172.9227705465</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3171,15 @@
         <v>1543</v>
       </c>
       <c r="G88" t="n">
-        <v>-120629.9227705465</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3201,15 @@
         <v>7721.1811</v>
       </c>
       <c r="G89" t="n">
-        <v>-128351.1038705465</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3231,15 @@
         <v>890</v>
       </c>
       <c r="G90" t="n">
-        <v>-127461.1038705465</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3261,15 @@
         <v>1585.628</v>
       </c>
       <c r="G91" t="n">
-        <v>-125875.4758705465</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3291,15 @@
         <v>13719.51219512195</v>
       </c>
       <c r="G92" t="n">
-        <v>-125875.4758705465</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3321,15 @@
         <v>5439</v>
       </c>
       <c r="G93" t="n">
-        <v>-120436.4758705465</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3351,15 @@
         <v>2120</v>
       </c>
       <c r="G94" t="n">
-        <v>-118316.4758705465</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3381,15 @@
         <v>1975.2165</v>
       </c>
       <c r="G95" t="n">
-        <v>-120291.6923705465</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3411,15 @@
         <v>2110</v>
       </c>
       <c r="G96" t="n">
-        <v>-118181.6923705465</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3441,15 @@
         <v>3728.3524</v>
       </c>
       <c r="G97" t="n">
-        <v>-121910.0447705465</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3471,15 @@
         <v>2164</v>
       </c>
       <c r="G98" t="n">
-        <v>-119746.0447705465</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3501,15 @@
         <v>18083.8027</v>
       </c>
       <c r="G99" t="n">
-        <v>-137829.8474705465</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3531,15 @@
         <v>2528.1352</v>
       </c>
       <c r="G100" t="n">
-        <v>-135301.7122705465</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3561,15 @@
         <v>6960</v>
       </c>
       <c r="G101" t="n">
-        <v>-128341.7122705465</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3591,15 @@
         <v>2518.3554</v>
       </c>
       <c r="G102" t="n">
-        <v>-128341.7122705465</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3621,15 @@
         <v>1827</v>
       </c>
       <c r="G103" t="n">
-        <v>-130168.7122705465</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3651,15 @@
         <v>7188.9013</v>
       </c>
       <c r="G104" t="n">
-        <v>-122979.8109705465</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3681,15 @@
         <v>208</v>
       </c>
       <c r="G105" t="n">
-        <v>-122979.8109705465</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3711,15 @@
         <v>207.427</v>
       </c>
       <c r="G106" t="n">
-        <v>-122772.3839705465</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3741,15 @@
         <v>15636.39938488665</v>
       </c>
       <c r="G107" t="n">
-        <v>-107135.9845856599</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3771,15 @@
         <v>3629.0258</v>
       </c>
       <c r="G108" t="n">
-        <v>-103506.9587856599</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3801,15 @@
         <v>3854.3254</v>
       </c>
       <c r="G109" t="n">
-        <v>-107361.2841856599</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3831,15 @@
         <v>1162.9198</v>
       </c>
       <c r="G110" t="n">
-        <v>-107361.2841856599</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3861,15 @@
         <v>193.6062</v>
       </c>
       <c r="G111" t="n">
-        <v>-107554.8903856599</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3891,15 @@
         <v>1041.997483643684</v>
       </c>
       <c r="G112" t="n">
-        <v>-106512.8929020162</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3921,15 @@
         <v>1270</v>
       </c>
       <c r="G113" t="n">
-        <v>-107782.8929020162</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3951,15 @@
         <v>3190</v>
       </c>
       <c r="G114" t="n">
-        <v>-107782.8929020162</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3981,15 @@
         <v>391.4588</v>
       </c>
       <c r="G115" t="n">
-        <v>-107782.8929020162</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4011,15 @@
         <v>11.3721</v>
       </c>
       <c r="G116" t="n">
-        <v>-107794.2650020162</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4041,15 @@
         <v>74.4391</v>
       </c>
       <c r="G117" t="n">
-        <v>-107868.7041020162</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4071,15 @@
         <v>9538.2554</v>
       </c>
       <c r="G118" t="n">
-        <v>-98330.44870201619</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4101,15 @@
         <v>8711.201999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-89619.24670201619</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4131,15 @@
         <v>68.8927</v>
       </c>
       <c r="G120" t="n">
-        <v>-89619.24670201619</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4161,15 @@
         <v>1619.8488</v>
       </c>
       <c r="G121" t="n">
-        <v>-91239.09550201619</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4191,15 @@
         <v>597.8011</v>
       </c>
       <c r="G122" t="n">
-        <v>-91836.89660201619</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4221,15 @@
         <v>1932.0519</v>
       </c>
       <c r="G123" t="n">
-        <v>-93768.9485020162</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4251,15 @@
         <v>83.655</v>
       </c>
       <c r="G124" t="n">
-        <v>-93685.2935020162</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4281,15 @@
         <v>8699.0972</v>
       </c>
       <c r="G125" t="n">
-        <v>-102384.3907020162</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4311,15 @@
         <v>75.5748</v>
       </c>
       <c r="G126" t="n">
-        <v>-102308.8159020162</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4341,15 @@
         <v>71.7961</v>
       </c>
       <c r="G127" t="n">
-        <v>-102308.8159020162</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4371,15 @@
         <v>748.0838</v>
       </c>
       <c r="G128" t="n">
-        <v>-103056.8997020162</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4401,15 @@
         <v>9.916499999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>-103066.8162020162</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4431,15 @@
         <v>50216.7887</v>
       </c>
       <c r="G130" t="n">
-        <v>-52850.0275020162</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4461,15 @@
         <v>4232.35</v>
       </c>
       <c r="G131" t="n">
-        <v>-52850.0275020162</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4491,15 @@
         <v>68.622</v>
       </c>
       <c r="G132" t="n">
-        <v>-52850.0275020162</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4521,15 @@
         <v>125.7942</v>
       </c>
       <c r="G133" t="n">
-        <v>-52850.0275020162</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4551,15 @@
         <v>337.4321</v>
       </c>
       <c r="G134" t="n">
-        <v>-52512.5954020162</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4581,15 @@
         <v>8906.224</v>
       </c>
       <c r="G135" t="n">
-        <v>-52512.5954020162</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4611,15 @@
         <v>5400</v>
       </c>
       <c r="G136" t="n">
-        <v>-47112.5954020162</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4641,15 @@
         <v>4120</v>
       </c>
       <c r="G137" t="n">
-        <v>-47112.5954020162</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4671,15 @@
         <v>1514.3793</v>
       </c>
       <c r="G138" t="n">
-        <v>-47112.5954020162</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4701,15 @@
         <v>5383.494</v>
       </c>
       <c r="G139" t="n">
-        <v>-52496.0894020162</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4731,15 @@
         <v>1590.1194</v>
       </c>
       <c r="G140" t="n">
-        <v>-50905.9700020162</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4761,15 @@
         <v>21.4374</v>
       </c>
       <c r="G141" t="n">
-        <v>-50905.9700020162</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4791,15 @@
         <v>8874.731900000001</v>
       </c>
       <c r="G142" t="n">
-        <v>-42031.2381020162</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4821,15 @@
         <v>60.4061</v>
       </c>
       <c r="G143" t="n">
-        <v>-42031.2381020162</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4851,15 @@
         <v>122.9735</v>
       </c>
       <c r="G144" t="n">
-        <v>-42031.2381020162</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4881,15 @@
         <v>41.0114</v>
       </c>
       <c r="G145" t="n">
-        <v>-42031.2381020162</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4911,15 @@
         <v>100.5642</v>
       </c>
       <c r="G146" t="n">
-        <v>-42031.2381020162</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4941,15 @@
         <v>1840</v>
       </c>
       <c r="G147" t="n">
-        <v>-43871.2381020162</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4971,15 @@
         <v>135.3447</v>
       </c>
       <c r="G148" t="n">
-        <v>-43735.8934020162</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5001,15 @@
         <v>5957.192</v>
       </c>
       <c r="G149" t="n">
-        <v>-37778.7014020162</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5031,15 @@
         <v>3707.1255</v>
       </c>
       <c r="G150" t="n">
-        <v>-34071.57590201619</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5061,15 @@
         <v>95.2564</v>
       </c>
       <c r="G151" t="n">
-        <v>-34071.57590201619</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5091,15 @@
         <v>14745.4697</v>
       </c>
       <c r="G152" t="n">
-        <v>-48817.04560201619</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5121,15 @@
         <v>1290.0814</v>
       </c>
       <c r="G153" t="n">
-        <v>-47526.96420201619</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5151,15 @@
         <v>28.2375</v>
       </c>
       <c r="G154" t="n">
-        <v>-47498.72670201619</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5181,15 @@
         <v>503.7859</v>
       </c>
       <c r="G155" t="n">
-        <v>-48002.51260201619</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5211,15 @@
         <v>14469.2735</v>
       </c>
       <c r="G156" t="n">
-        <v>-62471.78610201619</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5241,15 @@
         <v>568.0011</v>
       </c>
       <c r="G157" t="n">
-        <v>-63039.7872020162</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5271,15 @@
         <v>51.1749</v>
       </c>
       <c r="G158" t="n">
-        <v>-63090.96210201619</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5301,15 @@
         <v>15.1</v>
       </c>
       <c r="G159" t="n">
-        <v>-63075.8621020162</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5331,15 @@
         <v>6750.7241</v>
       </c>
       <c r="G160" t="n">
-        <v>-69826.5862020162</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5361,15 @@
         <v>106</v>
       </c>
       <c r="G161" t="n">
-        <v>-69720.5862020162</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5391,15 @@
         <v>18.6243</v>
       </c>
       <c r="G162" t="n">
-        <v>-69701.96190201621</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5421,15 @@
         <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>-69704.96190201621</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5451,15 @@
         <v>169.4868</v>
       </c>
       <c r="G164" t="n">
-        <v>-69704.96190201621</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5481,15 @@
         <v>99.43859999999999</v>
       </c>
       <c r="G165" t="n">
-        <v>-69804.4005020162</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5511,15 @@
         <v>2772.9856</v>
       </c>
       <c r="G166" t="n">
-        <v>-72577.3861020162</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5541,15 @@
         <v>50948.1338</v>
       </c>
       <c r="G167" t="n">
-        <v>-72577.3861020162</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5571,15 @@
         <v>187.3531</v>
       </c>
       <c r="G168" t="n">
-        <v>-72390.03300201621</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5601,15 @@
         <v>338.2199</v>
       </c>
       <c r="G169" t="n">
-        <v>-72390.03300201621</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5631,15 @@
         <v>48.8657</v>
       </c>
       <c r="G170" t="n">
-        <v>-72390.03300201621</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5661,15 @@
         <v>1169.3298</v>
       </c>
       <c r="G171" t="n">
-        <v>-72390.03300201621</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5691,15 @@
         <v>462.2275</v>
       </c>
       <c r="G172" t="n">
-        <v>-71927.80550201621</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5721,15 @@
         <v>950.665</v>
       </c>
       <c r="G173" t="n">
-        <v>-71927.80550201621</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5751,15 @@
         <v>432.6403</v>
       </c>
       <c r="G174" t="n">
-        <v>-71927.80550201621</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5781,15 @@
         <v>93.6105</v>
       </c>
       <c r="G175" t="n">
-        <v>-71927.80550201621</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5811,15 @@
         <v>436.2691</v>
       </c>
       <c r="G176" t="n">
-        <v>-72364.07460201622</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5841,15 @@
         <v>95.21550000000001</v>
       </c>
       <c r="G177" t="n">
-        <v>-72364.07460201622</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5871,15 @@
         <v>83.00830000000001</v>
       </c>
       <c r="G178" t="n">
-        <v>-72447.08290201622</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5901,15 @@
         <v>2446.681</v>
       </c>
       <c r="G179" t="n">
-        <v>-74893.76390201622</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5931,15 @@
         <v>397.4857</v>
       </c>
       <c r="G180" t="n">
-        <v>-74496.27820201621</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5961,15 @@
         <v>1290.0717</v>
       </c>
       <c r="G181" t="n">
-        <v>-75786.34990201621</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5991,15 @@
         <v>780.3575</v>
       </c>
       <c r="G182" t="n">
-        <v>-75005.99240201621</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6021,15 @@
         <v>140.6284</v>
       </c>
       <c r="G183" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6051,15 @@
         <v>4861.6237</v>
       </c>
       <c r="G184" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6081,15 @@
         <v>509.8533</v>
       </c>
       <c r="G185" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6111,15 @@
         <v>1648.4643</v>
       </c>
       <c r="G186" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6141,15 @@
         <v>148.05</v>
       </c>
       <c r="G187" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6171,15 @@
         <v>5.7578</v>
       </c>
       <c r="G188" t="n">
-        <v>-75146.62080201622</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6201,15 @@
         <v>568.0011</v>
       </c>
       <c r="G189" t="n">
-        <v>-75714.62190201621</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6231,15 @@
         <v>2888.9677</v>
       </c>
       <c r="G190" t="n">
-        <v>-75714.62190201621</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6261,15 @@
         <v>13.6938</v>
       </c>
       <c r="G191" t="n">
-        <v>-75714.62190201621</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6291,15 @@
         <v>187.1963</v>
       </c>
       <c r="G192" t="n">
-        <v>-75527.42560201621</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6321,15 @@
         <v>68.21510000000001</v>
       </c>
       <c r="G193" t="n">
-        <v>-75459.21050201621</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6351,15 @@
         <v>268.4388</v>
       </c>
       <c r="G194" t="n">
-        <v>-75459.21050201621</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6381,15 @@
         <v>101.368</v>
       </c>
       <c r="G195" t="n">
-        <v>-75459.21050201621</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6411,15 @@
         <v>100</v>
       </c>
       <c r="G196" t="n">
-        <v>-75559.21050201621</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6441,15 @@
         <v>11.122</v>
       </c>
       <c r="G197" t="n">
-        <v>-75559.21050201621</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6471,15 @@
         <v>117.0438</v>
       </c>
       <c r="G198" t="n">
-        <v>-75559.21050201621</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6501,15 @@
         <v>271.4086</v>
       </c>
       <c r="G199" t="n">
-        <v>-75830.61910201621</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6531,15 @@
         <v>9539.7016</v>
       </c>
       <c r="G200" t="n">
-        <v>-85370.32070201621</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6561,15 @@
         <v>2870</v>
       </c>
       <c r="G201" t="n">
-        <v>-88240.32070201621</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6591,15 @@
         <v>14.4993</v>
       </c>
       <c r="G202" t="n">
-        <v>-88225.82140201621</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6621,15 @@
         <v>130.54</v>
       </c>
       <c r="G203" t="n">
-        <v>-88356.36140201621</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6651,15 @@
         <v>860</v>
       </c>
       <c r="G204" t="n">
-        <v>-89216.36140201621</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6681,15 @@
         <v>3</v>
       </c>
       <c r="G205" t="n">
-        <v>-89213.36140201621</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6711,15 @@
         <v>4970</v>
       </c>
       <c r="G206" t="n">
-        <v>-94183.36140201621</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6741,15 @@
         <v>2349.9816</v>
       </c>
       <c r="G207" t="n">
-        <v>-94183.36140201621</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6771,15 @@
         <v>8245.707899999999</v>
       </c>
       <c r="G208" t="n">
-        <v>-102429.0693020162</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6801,15 @@
         <v>20.2888</v>
       </c>
       <c r="G209" t="n">
-        <v>-102408.7805020162</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6831,15 @@
         <v>1342.3412</v>
       </c>
       <c r="G210" t="n">
-        <v>-103751.1217020162</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6861,15 @@
         <v>34.5556</v>
       </c>
       <c r="G211" t="n">
-        <v>-103716.5661020162</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6891,15 @@
         <v>150</v>
       </c>
       <c r="G212" t="n">
-        <v>-103716.5661020162</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6921,15 @@
         <v>150</v>
       </c>
       <c r="G213" t="n">
-        <v>-103566.5661020162</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6951,15 @@
         <v>9392.6088</v>
       </c>
       <c r="G214" t="n">
-        <v>-112959.1749020162</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6981,15 @@
         <v>58458.2328</v>
       </c>
       <c r="G215" t="n">
-        <v>-171417.4077020162</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7011,15 @@
         <v>2250</v>
       </c>
       <c r="G216" t="n">
-        <v>-169167.4077020162</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7041,15 @@
         <v>1350</v>
       </c>
       <c r="G217" t="n">
-        <v>-169167.4077020162</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7071,15 @@
         <v>2323</v>
       </c>
       <c r="G218" t="n">
-        <v>-166844.4077020162</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7101,15 @@
         <v>200</v>
       </c>
       <c r="G219" t="n">
-        <v>-167044.4077020162</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7131,21 @@
         <v>17599.7949</v>
       </c>
       <c r="G220" t="n">
-        <v>-149444.6128020162</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>191.9</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7167,21 @@
         <v>18314.5292</v>
       </c>
       <c r="G221" t="n">
-        <v>-149444.6128020162</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>194.2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7203,19 @@
         <v>2713.1641</v>
       </c>
       <c r="G222" t="n">
-        <v>-152157.7769020162</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7237,19 @@
         <v>13452.111</v>
       </c>
       <c r="G223" t="n">
-        <v>-138705.6659020162</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7271,19 @@
         <v>238.0936</v>
       </c>
       <c r="G224" t="n">
-        <v>-138943.7595020162</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7305,19 @@
         <v>3059.684</v>
       </c>
       <c r="G225" t="n">
-        <v>-135884.0755020161</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7339,19 @@
         <v>1057.2804</v>
       </c>
       <c r="G226" t="n">
-        <v>-135884.0755020161</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7373,19 @@
         <v>2871.9854</v>
       </c>
       <c r="G227" t="n">
-        <v>-135884.0755020161</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7407,19 @@
         <v>7.9555</v>
       </c>
       <c r="G228" t="n">
-        <v>-135884.0755020161</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7441,19 @@
         <v>2988.1522</v>
       </c>
       <c r="G229" t="n">
-        <v>-138872.2277020162</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7475,19 @@
         <v>2633.7502</v>
       </c>
       <c r="G230" t="n">
-        <v>-136238.4775020161</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7509,19 @@
         <v>3401.7797</v>
       </c>
       <c r="G231" t="n">
-        <v>-136238.4775020161</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7543,19 @@
         <v>3</v>
       </c>
       <c r="G232" t="n">
-        <v>-136241.4775020161</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7577,19 @@
         <v>12</v>
       </c>
       <c r="G233" t="n">
-        <v>-136229.4775020161</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7611,19 @@
         <v>450</v>
       </c>
       <c r="G234" t="n">
-        <v>-135779.4775020161</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7645,19 @@
         <v>600</v>
       </c>
       <c r="G235" t="n">
-        <v>-136379.4775020161</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7679,19 @@
         <v>4382.0267</v>
       </c>
       <c r="G236" t="n">
-        <v>-131997.4508020162</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7713,19 @@
         <v>1619.7046</v>
       </c>
       <c r="G237" t="n">
-        <v>-130377.7462020162</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7747,19 @@
         <v>2940</v>
       </c>
       <c r="G238" t="n">
-        <v>-127437.7462020162</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7781,19 @@
         <v>242</v>
       </c>
       <c r="G239" t="n">
-        <v>-127679.7462020162</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7815,19 @@
         <v>2570</v>
       </c>
       <c r="G240" t="n">
-        <v>-127679.7462020162</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7849,19 @@
         <v>3894.7705</v>
       </c>
       <c r="G241" t="n">
-        <v>-127679.7462020162</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7883,19 @@
         <v>270.37</v>
       </c>
       <c r="G242" t="n">
-        <v>-127679.7462020162</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7917,19 @@
         <v>23398.1628</v>
       </c>
       <c r="G243" t="n">
-        <v>-151077.9090020162</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7951,19 @@
         <v>3920</v>
       </c>
       <c r="G244" t="n">
-        <v>-147157.9090020162</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7985,19 @@
         <v>980</v>
       </c>
       <c r="G245" t="n">
-        <v>-146177.9090020162</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8019,19 @@
         <v>3</v>
       </c>
       <c r="G246" t="n">
-        <v>-146180.9090020162</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8053,19 @@
         <v>1287.4437</v>
       </c>
       <c r="G247" t="n">
-        <v>-146180.9090020162</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8087,19 @@
         <v>4510</v>
       </c>
       <c r="G248" t="n">
-        <v>-141670.9090020162</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8121,19 @@
         <v>29719.1448</v>
       </c>
       <c r="G249" t="n">
-        <v>-111951.7642020162</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8155,19 @@
         <v>1982.004008016032</v>
       </c>
       <c r="G250" t="n">
-        <v>-109969.7601940001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8189,19 @@
         <v>1123</v>
       </c>
       <c r="G251" t="n">
-        <v>-111092.7601940001</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8223,19 @@
         <v>533</v>
       </c>
       <c r="G252" t="n">
-        <v>-111092.7601940001</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8257,19 @@
         <v>17813.4778</v>
       </c>
       <c r="G253" t="n">
-        <v>-128906.2379940001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8291,19 @@
         <v>2321</v>
       </c>
       <c r="G254" t="n">
-        <v>-131227.2379940001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8325,19 @@
         <v>1168.0778</v>
       </c>
       <c r="G255" t="n">
-        <v>-130059.1601940001</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8359,19 @@
         <v>512.5874</v>
       </c>
       <c r="G256" t="n">
-        <v>-130571.7475940001</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8393,19 @@
         <v>3000</v>
       </c>
       <c r="G257" t="n">
-        <v>-127571.7475940001</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8427,19 @@
         <v>3.2364</v>
       </c>
       <c r="G258" t="n">
-        <v>-127571.7475940001</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8461,19 @@
         <v>518.8367</v>
       </c>
       <c r="G259" t="n">
-        <v>-127571.7475940001</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8495,19 @@
         <v>13163</v>
       </c>
       <c r="G260" t="n">
-        <v>-140734.7475940001</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8529,19 @@
         <v>2320</v>
       </c>
       <c r="G261" t="n">
-        <v>-138414.7475940001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8563,19 @@
         <v>10087.687</v>
       </c>
       <c r="G262" t="n">
-        <v>-128327.0605940001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8597,19 @@
         <v>320</v>
       </c>
       <c r="G263" t="n">
-        <v>-128647.0605940001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8631,19 @@
         <v>3660</v>
       </c>
       <c r="G264" t="n">
-        <v>-132307.0605940001</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8665,19 @@
         <v>49918.6059</v>
       </c>
       <c r="G265" t="n">
-        <v>-182225.6664940001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8699,19 @@
         <v>5025.2186</v>
       </c>
       <c r="G266" t="n">
-        <v>-177200.4478940001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8733,19 @@
         <v>1892</v>
       </c>
       <c r="G267" t="n">
-        <v>-179092.4478940001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8767,19 @@
         <v>14.3918</v>
       </c>
       <c r="G268" t="n">
-        <v>-179078.0560940001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8801,19 @@
         <v>4855.406429509853</v>
       </c>
       <c r="G269" t="n">
-        <v>-183933.46252351</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8835,19 @@
         <v>123.8504</v>
       </c>
       <c r="G270" t="n">
-        <v>-184057.31292351</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8869,19 @@
         <v>19790.0194</v>
       </c>
       <c r="G271" t="n">
-        <v>-164267.29352351</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8903,19 @@
         <v>12662.8597</v>
       </c>
       <c r="G272" t="n">
-        <v>-164267.29352351</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8937,19 @@
         <v>746.4936</v>
       </c>
       <c r="G273" t="n">
-        <v>-165013.78712351</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8971,19 @@
         <v>886.5765</v>
       </c>
       <c r="G274" t="n">
-        <v>-164127.21062351</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +9005,19 @@
         <v>7952.7024</v>
       </c>
       <c r="G275" t="n">
-        <v>-156174.50822351</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +9039,19 @@
         <v>3090</v>
       </c>
       <c r="G276" t="n">
-        <v>-156174.50822351</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +9073,19 @@
         <v>207</v>
       </c>
       <c r="G277" t="n">
-        <v>-156174.50822351</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +9107,19 @@
         <v>9287.049999999999</v>
       </c>
       <c r="G278" t="n">
-        <v>-156174.50822351</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +9141,19 @@
         <v>7901.3265</v>
       </c>
       <c r="G279" t="n">
-        <v>-156174.50822351</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +9175,19 @@
         <v>2692.4184</v>
       </c>
       <c r="G280" t="n">
-        <v>-153482.08982351</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +9209,19 @@
         <v>5998.6666</v>
       </c>
       <c r="G281" t="n">
-        <v>-153482.08982351</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +9243,19 @@
         <v>36.4547</v>
       </c>
       <c r="G282" t="n">
-        <v>-153518.54452351</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +9277,19 @@
         <v>8436.2392</v>
       </c>
       <c r="G283" t="n">
-        <v>-161954.78372351</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +9311,19 @@
         <v>36.4484</v>
       </c>
       <c r="G284" t="n">
-        <v>-161918.33532351</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +9345,19 @@
         <v>2692.4184</v>
       </c>
       <c r="G285" t="n">
-        <v>-164610.75372351</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9379,19 @@
         <v>7</v>
       </c>
       <c r="G286" t="n">
-        <v>-164603.75372351</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9413,19 @@
         <v>2521.697</v>
       </c>
       <c r="G287" t="n">
-        <v>-164603.75372351</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9447,19 @@
         <v>1467.884</v>
       </c>
       <c r="G288" t="n">
-        <v>-166071.63772351</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9481,19 @@
         <v>2277.651</v>
       </c>
       <c r="G289" t="n">
-        <v>-168349.28872351</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,18 +9515,19 @@
         <v>9.307600000000001</v>
       </c>
       <c r="G290" t="n">
-        <v>-168358.59632351</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9985,18 +9549,19 @@
         <v>8622.7551</v>
       </c>
       <c r="G291" t="n">
-        <v>-176981.35142351</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10018,18 +9583,19 @@
         <v>1377.5</v>
       </c>
       <c r="G292" t="n">
-        <v>-175603.85142351</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10051,18 +9617,19 @@
         <v>294.838</v>
       </c>
       <c r="G293" t="n">
-        <v>-175309.01342351</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10084,18 +9651,19 @@
         <v>100</v>
       </c>
       <c r="G294" t="n">
-        <v>-175409.01342351</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10117,18 +9685,19 @@
         <v>4077.805</v>
       </c>
       <c r="G295" t="n">
-        <v>-171331.20842351</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10150,18 +9719,19 @@
         <v>1350</v>
       </c>
       <c r="G296" t="n">
-        <v>-172681.20842351</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10183,18 +9753,19 @@
         <v>2794.7214</v>
       </c>
       <c r="G297" t="n">
-        <v>-175475.92982351</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10216,18 +9787,19 @@
         <v>1050</v>
       </c>
       <c r="G298" t="n">
-        <v>-176525.92982351</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10249,18 +9821,19 @@
         <v>4451.0747</v>
       </c>
       <c r="G299" t="n">
-        <v>-180977.00452351</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10282,18 +9855,19 @@
         <v>87390.17939999999</v>
       </c>
       <c r="G300" t="n">
-        <v>-268367.18392351</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10315,18 +9889,19 @@
         <v>6149.5137</v>
       </c>
       <c r="G301" t="n">
-        <v>-274516.69762351</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10348,18 +9923,19 @@
         <v>10913.7761</v>
       </c>
       <c r="G302" t="n">
-        <v>-285430.47372351</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10381,18 +9957,19 @@
         <v>16005.5582</v>
       </c>
       <c r="G303" t="n">
-        <v>-269424.9155235101</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10414,18 +9991,19 @@
         <v>26706.8254</v>
       </c>
       <c r="G304" t="n">
-        <v>-296131.74092351</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10447,18 +10025,19 @@
         <v>960</v>
       </c>
       <c r="G305" t="n">
-        <v>-295171.74092351</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10480,18 +10059,19 @@
         <v>1400</v>
       </c>
       <c r="G306" t="n">
-        <v>-295171.74092351</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10513,18 +10093,19 @@
         <v>23427.5196</v>
       </c>
       <c r="G307" t="n">
-        <v>-318599.26052351</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10546,18 +10127,19 @@
         <v>5000</v>
       </c>
       <c r="G308" t="n">
-        <v>-313599.26052351</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10579,18 +10161,19 @@
         <v>1940</v>
       </c>
       <c r="G309" t="n">
-        <v>-315539.26052351</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10612,18 +10195,19 @@
         <v>18280</v>
       </c>
       <c r="G310" t="n">
-        <v>-315539.26052351</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10645,18 +10229,19 @@
         <v>4429.7016</v>
       </c>
       <c r="G311" t="n">
-        <v>-311109.55892351</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10678,18 +10263,19 @@
         <v>1420</v>
       </c>
       <c r="G312" t="n">
-        <v>-312529.55892351</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10711,18 +10297,19 @@
         <v>5370</v>
       </c>
       <c r="G313" t="n">
-        <v>-312529.55892351</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10744,18 +10331,19 @@
         <v>20</v>
       </c>
       <c r="G314" t="n">
-        <v>-312549.55892351</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10777,18 +10365,19 @@
         <v>846.2354</v>
       </c>
       <c r="G315" t="n">
-        <v>-313395.79432351</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10810,18 +10399,19 @@
         <v>10449.5644</v>
       </c>
       <c r="G316" t="n">
-        <v>-302946.2299235101</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10843,18 +10433,19 @@
         <v>110.47</v>
       </c>
       <c r="G317" t="n">
-        <v>-302946.2299235101</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10876,18 +10467,19 @@
         <v>800</v>
       </c>
       <c r="G318" t="n">
-        <v>-303746.2299235101</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10909,18 +10501,19 @@
         <v>277.3023</v>
       </c>
       <c r="G319" t="n">
-        <v>-304023.53222351</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10942,18 +10535,19 @@
         <v>147.3818</v>
       </c>
       <c r="G320" t="n">
-        <v>-304170.91402351</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10975,18 +10569,19 @@
         <v>5.2254</v>
       </c>
       <c r="G321" t="n">
-        <v>-304165.68862351</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11008,18 +10603,19 @@
         <v>374.9688</v>
       </c>
       <c r="G322" t="n">
-        <v>-303790.71982351</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11041,18 +10637,19 @@
         <v>68613.1048</v>
       </c>
       <c r="G323" t="n">
-        <v>-372403.82462351</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11074,18 +10671,19 @@
         <v>20.8861</v>
       </c>
       <c r="G324" t="n">
-        <v>-372382.93852351</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11107,18 +10705,19 @@
         <v>50</v>
       </c>
       <c r="G325" t="n">
-        <v>-372382.93852351</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11140,18 +10739,19 @@
         <v>49.3164</v>
       </c>
       <c r="G326" t="n">
-        <v>-372333.62212351</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11173,18 +10773,19 @@
         <v>11.122</v>
       </c>
       <c r="G327" t="n">
-        <v>-372344.74412351</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11206,18 +10807,19 @@
         <v>577.1043</v>
       </c>
       <c r="G328" t="n">
-        <v>-372344.74412351</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11239,18 +10841,19 @@
         <v>28.6174</v>
       </c>
       <c r="G329" t="n">
-        <v>-372316.12672351</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11272,18 +10875,19 @@
         <v>2365.2154</v>
       </c>
       <c r="G330" t="n">
-        <v>-372316.12672351</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11305,18 +10909,19 @@
         <v>11834.9728</v>
       </c>
       <c r="G331" t="n">
-        <v>-360481.15392351</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11338,18 +10943,19 @@
         <v>1842.0597</v>
       </c>
       <c r="G332" t="n">
-        <v>-362323.21362351</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11371,18 +10977,19 @@
         <v>18400.3133</v>
       </c>
       <c r="G333" t="n">
-        <v>-380723.52692351</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11404,18 +11011,19 @@
         <v>1651.1857</v>
       </c>
       <c r="G334" t="n">
-        <v>-379072.34122351</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11437,18 +11045,19 @@
         <v>152.3536</v>
       </c>
       <c r="G335" t="n">
-        <v>-379224.69482351</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11470,18 +11079,19 @@
         <v>2367.803</v>
       </c>
       <c r="G336" t="n">
-        <v>-379224.69482351</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11503,18 +11113,19 @@
         <v>1900</v>
       </c>
       <c r="G337" t="n">
-        <v>-381124.69482351</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11536,18 +11147,19 @@
         <v>31494.8383</v>
       </c>
       <c r="G338" t="n">
-        <v>-349629.85652351</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11569,18 +11181,19 @@
         <v>3346</v>
       </c>
       <c r="G339" t="n">
-        <v>-352975.85652351</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11602,18 +11215,19 @@
         <v>303.8234</v>
       </c>
       <c r="G340" t="n">
-        <v>-353279.6799235099</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11635,18 +11249,19 @@
         <v>4768.2103</v>
       </c>
       <c r="G341" t="n">
-        <v>-348511.46962351</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11668,18 +11283,19 @@
         <v>8996.736800000001</v>
       </c>
       <c r="G342" t="n">
-        <v>-339514.73282351</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11701,18 +11317,19 @@
         <v>5</v>
       </c>
       <c r="G343" t="n">
-        <v>-339519.73282351</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11734,18 +11351,19 @@
         <v>1100</v>
       </c>
       <c r="G344" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11767,22 +11385,19 @@
         <v>2272</v>
       </c>
       <c r="G345" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J345" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11804,26 +11419,19 @@
         <v>21.3009</v>
       </c>
       <c r="G346" t="n">
-        <v>-338419.73282351</v>
-      </c>
-      <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J346" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -11845,26 +11453,19 @@
         <v>6000</v>
       </c>
       <c r="G347" t="n">
-        <v>-344419.73282351</v>
-      </c>
-      <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="J347" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -11886,26 +11487,19 @@
         <v>9.858499999999999</v>
       </c>
       <c r="G348" t="n">
-        <v>-344409.87432351</v>
-      </c>
-      <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>191.6</v>
-      </c>
-      <c r="J348" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K348" t="n">
+        <v>1</v>
+      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
